--- a/Zadanie2 praca python/Zadanie praca.xlsx
+++ b/Zadanie2 praca python/Zadanie praca.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BlueCompany\source\repos\Zadanie2 praca python\Zadanie2 praca python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BlueCompany\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{6BD3427A-62B0-405E-BE7A-1C2EC96B0220}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35BEDF64-D952-46C6-9015-74EC409104A7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="5955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="5955" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Przykład 2" sheetId="2" r:id="rId1"/>
-    <sheet name="Przykład 1" sheetId="1" r:id="rId2"/>
+    <sheet name="Przykład 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Przykład 2" sheetId="2" r:id="rId2"/>
     <sheet name="Przykład 3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -518,353 +518,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="20.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1">
-        <f t="shared" ref="E2:E9" ca="1" si="0">RANDBETWEEN(100,1000)</f>
-        <v>220</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>99</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>103</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="1">
-        <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>187</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>98</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>829</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>874</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>940</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>478</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>921</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:L10"/>
   <sheetViews>
@@ -924,7 +577,7 @@
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E3:E10" ca="1" si="0">RANDBETWEEN(100,1000)</f>
-        <v>717</v>
+        <v>571</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -955,7 +608,7 @@
       </c>
       <c r="E4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>434</v>
+        <v>301</v>
       </c>
       <c r="F4" s="1">
         <v>99</v>
@@ -984,7 +637,7 @@
       </c>
       <c r="E5" s="1">
         <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>664</v>
+        <v>867</v>
       </c>
       <c r="F5" s="1">
         <v>2</v>
@@ -1017,7 +670,7 @@
       </c>
       <c r="E6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>260</v>
+        <v>951</v>
       </c>
       <c r="F6" s="1">
         <v>98</v>
@@ -1044,7 +697,7 @@
       </c>
       <c r="E7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>920</v>
+        <v>705</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -1073,7 +726,7 @@
       </c>
       <c r="E8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>932</v>
+        <v>575</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="3" t="s">
@@ -1100,7 +753,7 @@
       </c>
       <c r="E9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>193</v>
+        <v>593</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -1129,7 +782,7 @@
       </c>
       <c r="E10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>260</v>
+        <v>410</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
@@ -1152,6 +805,353 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="20.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1">
+        <f t="shared" ref="E2:E9" ca="1" si="0">RANDBETWEEN(100,1000)</f>
+        <v>838</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>99</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>482</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1">
+        <f ca="1">RANDBETWEEN(100,1000)</f>
+        <v>993</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>98</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>256</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>358</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>183</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>373</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1159,7 +1159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="C2" s="1">
         <f t="shared" ref="C2:C9" ca="1" si="0">RANDBETWEEN(100,1000)</f>
-        <v>721</v>
+        <v>359</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="C3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>134</v>
+        <v>219</v>
       </c>
       <c r="D3" s="1">
         <v>99</v>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="C4" s="1">
         <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>625</v>
+        <v>758</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="C5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>392</v>
+        <v>724</v>
       </c>
       <c r="D5" s="1">
         <v>98</v>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="C6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>469</v>
+        <v>994</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="C7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>722</v>
+        <v>547</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="3" t="s">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="C8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>897</v>
+        <v>705</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="C9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>575</v>
+        <v>288</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
